--- a/src/main/resources/assets/_test/docs/xlsx/_IF006.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF006.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -462,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +640,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -887,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +901,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1485,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2080,7 +2089,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>10</v>
       </c>
       <c r="B48" t="s">
@@ -2156,7 +2165,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>12</v>
       </c>
       <c r="B50" t="s">
